--- a/ReportData/ReportData_Neeraj.xlsx
+++ b/ReportData/ReportData_Neeraj.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neeraj Kumar\PycharmProjects\Reporting\ReportData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63722240-FAA0-4F3C-8C93-BF2D357362C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC76CE4-DE9D-4833-88E8-19E24EAC7308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="1735" windowWidth="14400" windowHeight="7380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalData" sheetId="1" r:id="rId1"/>
@@ -21,14 +21,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
   <si>
     <t>Project_Name</t>
   </si>
   <si>
-    <t>BCM - Manager Portal</t>
-  </si>
-  <si>
     <t>Last Report Sent</t>
   </si>
   <si>
@@ -38,27 +35,15 @@
     <t>Report_Title</t>
   </si>
   <si>
-    <t>Project Health Report</t>
-  </si>
-  <si>
     <t>BarGraph_show</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>BarGraph_color</t>
   </si>
   <si>
-    <t>coral</t>
-  </si>
-  <si>
     <t>Report_Name</t>
   </si>
   <si>
-    <t>WeeklyReport</t>
-  </si>
-  <si>
     <t>Email_From</t>
   </si>
   <si>
@@ -68,21 +53,12 @@
     <t>Email_To</t>
   </si>
   <si>
-    <t>["neeraj.kumar@bitsinglass.com"]</t>
-  </si>
-  <si>
     <t>Email_Subject</t>
   </si>
   <si>
-    <t>Weekly Project Health Report</t>
-  </si>
-  <si>
     <t>Email_Content</t>
   </si>
   <si>
-    <t>Please find attached weekly report</t>
-  </si>
-  <si>
     <t>GoogleAppCode</t>
   </si>
   <si>
@@ -107,28 +83,69 @@
     <t>Comment</t>
   </si>
   <si>
-    <t>Home</t>
-  </si>
-  <si>
     <t>https://www.google.com/</t>
   </si>
   <si>
-    <t>In publishing and graphic design, Lorem ipsum is a placeholder text commonly used to demonstrate the visual form of a document or a typeface without relying on meaningful content. Lorem ipsum may be used as a placeholder before final copy is available</t>
-  </si>
-  <si>
-    <t>Plans</t>
-  </si>
-  <si>
-    <t>This is a dummy text</t>
-  </si>
-  <si>
-    <t>Bundles</t>
-  </si>
-  <si>
-    <t>Admin</t>
-  </si>
-  <si>
-    <t>Approvals</t>
+    <t>["neerajpebma0@gmail.com"]</t>
+  </si>
+  <si>
+    <t>Home1</t>
+  </si>
+  <si>
+    <t>Plans1</t>
+  </si>
+  <si>
+    <t>Bundles1</t>
+  </si>
+  <si>
+    <t>Admin1</t>
+  </si>
+  <si>
+    <t>Approvals1</t>
+  </si>
+  <si>
+    <t>This is a dummy text 1</t>
+  </si>
+  <si>
+    <t>This is a dummy text 2</t>
+  </si>
+  <si>
+    <t>This is a dummy text 3</t>
+  </si>
+  <si>
+    <t>This is a dummy text 4</t>
+  </si>
+  <si>
+    <t>BCM - Manager Portal 1</t>
+  </si>
+  <si>
+    <t>Project Health Report 1</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>WeeklyReport1</t>
+  </si>
+  <si>
+    <t>Weekly Project Health Report 1</t>
+  </si>
+  <si>
+    <t>Please find attached weekly report 1</t>
+  </si>
+  <si>
+    <t>Project_Status</t>
+  </si>
+  <si>
+    <t>Off Track</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>In publishing and graphic design, Lorem ipsum is a placeholder text commonly used to demonstrate the visual form of a document or a typeface without relying on meaningful content. Lorem ipsum may be used as a placeholder before final copy is available 1
+Lorem ipsum may be used as a placeholder before final copy is available 1
+This is a dummy text 1</t>
   </si>
 </sst>
 </file>
@@ -479,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -498,97 +515,114 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>15</v>
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
+        <v>9</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>21</v>
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>23</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Wrong input, choose from drop down" sqref="B3" xr:uid="{9E918E44-92AF-441D-98A0-F916B4CE0CA9}">
+      <formula1>"On Track, Off Track, Concerned"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Wrong input, choose from drop down" sqref="B4" xr:uid="{9A2DC573-9945-463E-856B-74F3FA662D92}">
+      <formula1>"Yes, No"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -596,8 +630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -613,86 +647,86 @@
   <sheetData>
     <row r="1" spans="1:4" ht="29.5" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A1" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="59" customHeight="1" x14ac:dyDescent="0.75">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="103.25" x14ac:dyDescent="0.75">
       <c r="A2" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B2" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A3" s="3" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B3" s="3">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A4" s="3" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B4" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A5" s="3" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B5" s="3">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A6" s="3" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B6" s="3">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.75">

--- a/ReportData/ReportData_Neeraj.xlsx
+++ b/ReportData/ReportData_Neeraj.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neeraj Kumar\PycharmProjects\Reporting\ReportData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C680FE-65F5-4B03-AD37-C093DE47D5B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D57EA1-3E9B-4C98-8F26-5F7AEF52B32A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2740" yWindow="1400" windowWidth="14400" windowHeight="8300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
   <si>
     <t>Project_Name</t>
   </si>
@@ -129,6 +129,12 @@
   </si>
   <si>
     <t>["neerajpebmaca@gmail.com"]</t>
+  </si>
+  <si>
+    <t>Project_Status</t>
+  </si>
+  <si>
+    <t>On Track</t>
   </si>
 </sst>
 </file>
@@ -479,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -509,85 +515,102 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>35</v>
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B12" s="5" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Invalid data, please choose from the list" sqref="B2" xr:uid="{70E95C30-3BE8-4220-B3FA-22866099B189}">
+      <formula1>"On Track, Off Track, Concerned"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Invalid data, please choose from the list" sqref="B4" xr:uid="{554FBFC6-1C2D-40D5-B273-0E9F7315E76A}">
+      <formula1>"Yes, No"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/ReportData/ReportData_Neeraj.xlsx
+++ b/ReportData/ReportData_Neeraj.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neeraj Kumar\PycharmProjects\Reporting\ReportData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D57EA1-3E9B-4C98-8F26-5F7AEF52B32A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38C28CD2-B74F-4CC0-BA49-5CC919660182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2740" yWindow="1400" windowWidth="14400" windowHeight="8300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -488,7 +488,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>

--- a/ReportData/ReportData_Neeraj.xlsx
+++ b/ReportData/ReportData_Neeraj.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neeraj Kumar\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WeeklyReport\Reporting\ReportData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F19F9DE4-5B86-41B9-ACE0-2CE6D76DBD23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59706C77-63E8-42CB-930D-1F6DDED0F2EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="1735" windowWidth="14400" windowHeight="8300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalData" sheetId="1" r:id="rId1"/>
@@ -143,7 +143,7 @@
     <t>["neeraj.kumar@bitsinglass.com"]</t>
   </si>
   <si>
-    <t>15GPVzpSezPSp8JnAOKmc2yhbVLcWQKwQ</t>
+    <t>1Res4X8Uvb5wdLI5IJnsP91D66qoD6qkH</t>
   </si>
 </sst>
 </file>
@@ -498,10 +498,10 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17.6328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.36328125" bestFit="1" customWidth="1"/>
@@ -509,7 +509,7 @@
     <col min="5" max="5" width="9.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -523,7 +523,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
@@ -532,7 +532,7 @@
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -540,7 +540,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -548,7 +548,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -556,7 +556,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -564,7 +564,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -572,7 +572,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -580,7 +580,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -588,7 +588,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -596,7 +596,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
@@ -604,7 +604,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
@@ -637,7 +637,7 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14.1796875" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.36328125" style="3" bestFit="1" customWidth="1"/>
@@ -648,7 +648,7 @@
     <col min="9" max="16384" width="8.7265625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="29.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:4" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -662,7 +662,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="59" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:4" ht="59" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>21</v>
       </c>
@@ -676,7 +676,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>24</v>
       </c>
@@ -690,7 +690,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
@@ -704,7 +704,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>27</v>
       </c>
@@ -718,7 +718,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>28</v>
       </c>
@@ -732,7 +732,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>34</v>
       </c>
@@ -741,10 +741,10 @@
       </c>
       <c r="C7" s="4"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C8" s="4"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C9" s="4"/>
     </row>
   </sheetData>

--- a/ReportData/ReportData_Neeraj.xlsx
+++ b/ReportData/ReportData_Neeraj.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neeraj Kumar\PycharmProjects\Reporting\ReportData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2DEF5AA-2A58-4E19-B5C0-49EA22E2534E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D1EA5AE-AB10-4FC4-98A2-260872338CB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
   <si>
     <t>Project_Name</t>
   </si>
@@ -35,9 +35,6 @@
     <t>Report_Title</t>
   </si>
   <si>
-    <t>Project Health Report</t>
-  </si>
-  <si>
     <t>BarGraph_show</t>
   </si>
   <si>
@@ -47,9 +44,6 @@
     <t>Report_Name</t>
   </si>
   <si>
-    <t>WeeklyReport</t>
-  </si>
-  <si>
     <t>Email_From</t>
   </si>
   <si>
@@ -62,9 +56,6 @@
     <t>Email_Content</t>
   </si>
   <si>
-    <t>Please find attached weekly report</t>
-  </si>
-  <si>
     <t>GoogleAppCode</t>
   </si>
   <si>
@@ -86,18 +77,9 @@
     <t>Home</t>
   </si>
   <si>
-    <t>https://www.google.com/</t>
-  </si>
-  <si>
-    <t>In publishing and graphic design, Lorem ipsum is a placeholder text commonly used to demonstrate the visual form of a document or a typeface without relying on meaningful content. Lorem ipsum may be used as a placeholder before final copy is available</t>
-  </si>
-  <si>
     <t>Plans</t>
   </si>
   <si>
-    <t>This is a dummy text</t>
-  </si>
-  <si>
     <t>Bundles</t>
   </si>
   <si>
@@ -110,24 +92,9 @@
     <t>Project_Status</t>
   </si>
   <si>
-    <t>Off Track</t>
-  </si>
-  <si>
     <t>coral</t>
   </si>
   <si>
-    <t>NCAP Project Health Report</t>
-  </si>
-  <si>
-    <t>Settings</t>
-  </si>
-  <si>
-    <t>I need support in this module.</t>
-  </si>
-  <si>
-    <t>This is working well.</t>
-  </si>
-  <si>
     <t>["neeraj.kumar@bitsinglass.com"]</t>
   </si>
   <si>
@@ -140,13 +107,107 @@
     <t>15GPVzpSezPSp8JnAOKmc2yhbVLcWQKwQ</t>
   </si>
   <si>
+    <t>BCM</t>
+  </si>
+  <si>
+    <t>StatusReport</t>
+  </si>
+  <si>
+    <t>Please find attached pdf report file for detailed information on Project Status</t>
+  </si>
+  <si>
+    <t>BugCount_show</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
-    <t>BugCount_show</t>
-  </si>
-  <si>
-    <t>BCM</t>
+    <t>[US18697]  https://rally1.rallydev.com/#/?detail=/userstory/645544635895&amp;fdp=true
+Status: Pending
+Acceptance Criteria:
+Market Segment, Effective Date, and End Date filters missing  [Pending]
+[US18699]  https://rally1.rallydev.com/#/?detail=/userstory/645546382079&amp;fdp=true
+Status: Done
+[US19023]  https://rally1.rallydev.com/#/?detail=/userstory/685893117545&amp;fdp=true
+Status: Need to discuss
+[US18971](https://rally1.rallydev.com/#/?detail=/userstory/684183351915&amp;fdp=true)
+Status: US not ready with full details</t>
+  </si>
+  <si>
+    <t>[US19176]  https://rally1.rallydev.com/#/?detail=/userstory/694249036483&amp;fdp=true
+Status: Pending
+Open Query: Change the check icon to be text + icon (what does a checkmark mean here?)
+[US18702]  https://rally1.rallydev.com/#/?detail=/userstory/645553234721&amp;fdp=true
+Status: Pending</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>[US18675] https://rally1.rallydev.com/#/?detail=/userstory/645216278847&amp;fdp=true 
+Status: Pending
+[US18696] https://rally1.rallydev.com/#/?detail=/userstory/645544620711&amp;fdp=true
+Status: Pending
+Acceptance Criteria:
+Can we add quick action buttons (i.e. edit/copy) next to each plan?   [Pending]
+[US19173] https://rally1.rallydev.com/#/?detail=/userstory/694246646497&amp;fdp=true
+Status: Done
+[US19174]  https://rally1.rallydev.com/#/?detail=/userstory/694247645289&amp;fdp=true
+Status: Done
+[US19175]  https://rally1.rallydev.com/#/?detail=/userstory/694247645289&amp;fdp=true
+Status: Done
+[US15881]  https://rally1.rallydev.com/#/?detail=/userstory/292376301980&amp;fdp=true
+Status: Pending (Compare plan is not functional yet or not working)
+[US18970] https://rally1.rallydev.com/#/?detail=/userstory/684183351649&amp;fdp=true
+Status: US not ready with full details
+[US19213]  https://rally1.rallydev.com/#/?detail=/userstory/695910723141&amp;fdp=true
+Status: Done
+[US15722]  https://rally1.rallydev.com/#/?detail=/userstory/283760945972&amp;fdp=true
+Status: Done</t>
+  </si>
+  <si>
+    <t>[US19168] https://rally1.rallydev.com/#/?detail=/userstory/694240575353&amp;fdp=true
+Status: Pending
+[US19177] https://rally1.rallydev.com/#/?detail=/userstory/694251461587&amp;fdp=true
+Status: Done
+[US19170]  https://rally1.rallydev.com/#/?detail=/userstory/694245363417&amp;fdp=true
+Status: Done
+[US19171]  https://rally1.rallydev.com/#/?detail=/userstory/694246213923&amp;fdp=true
+Status: Done
+[US19169] https://rally1.rallydev.com/#/?detail=/userstory/694245359309&amp;fdp=true
+Status: Done
+[US18701]  https://rally1.rallydev.com/#/?detail=/userstory/645552232791&amp;fdp=true
+Status: Pending</t>
+  </si>
+  <si>
+    <t>[US18969]  https://rally1.rallydev.com/#/?detail=/userstory/684183351077&amp;fdp=true
+Status: US not ready with full details
+[US18973]  https://rally1.rallydev.com/#/?detail=/userstory/684185743987&amp;fdp=true
+Status: US not ready with full details
+[US18972]  https://rally1.rallydev.com/#/?detail=/userstory/684185741787&amp;fdp=true
+Status: US not ready with full details
+[US18974]  https://rally1.rallydev.com/#/?detail=/userstory/684222341641&amp;fdp=true
+Status: US not ready with full details
+[US18704]  https://rally1.rallydev.com/#/?detail=/userstory/645554779261&amp;fdp=true
+Status: Pending
+[US18899]  https://rally1.rallydev.com/#/?detail=/userstory/675329191893&amp;fdp=true
+Status: Pending
+[US18705]  https://rally1.rallydev.com/#/?detail=/userstory/645554780251&amp;fdp=true
+Status: Pending
+[US19172]  https://rally1.rallydev.com/#/?detail=/userstory/694246638681&amp;fdp=true
+Status: Pending</t>
+  </si>
+  <si>
+    <t>Concerned</t>
+  </si>
+  <si>
+    <t>BCM - Quick User Stories Report</t>
+  </si>
+  <si>
+    <t>Quick User Stories Status</t>
   </si>
 </sst>
 </file>
@@ -203,7 +264,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -217,6 +278,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -501,7 +565,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -517,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -528,10 +592,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A2" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D2" s="1"/>
     </row>
@@ -540,87 +604,87 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -636,7 +700,6 @@
     <hyperlink ref="B8" r:id="rId1" xr:uid="{06E07FE0-1BF2-43E9-A7E4-71136DF95F21}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -644,16 +707,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="14.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.36328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="70.81640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="10.40625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.58984375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="122.40625" style="3" customWidth="1"/>
     <col min="5" max="5" width="21.6328125" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="8.7265625" style="3" customWidth="1"/>
     <col min="9" max="16384" width="8.7265625" style="3"/>
@@ -661,96 +724,71 @@
   <sheetData>
     <row r="1" spans="1:4" ht="29.5" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C2" s="7"/>
+      <c r="D2" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="C3" s="4"/>
+      <c r="D3" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A4" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="59" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A2" s="3" t="s">
+      <c r="C4" s="4"/>
+      <c r="D4" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="88.5" x14ac:dyDescent="0.75">
+      <c r="A5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="3">
-        <v>5</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="3">
-        <v>16</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="C5" s="4"/>
+      <c r="D5" s="3" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="3">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="3">
-        <v>7</v>
-      </c>
-      <c r="C6" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="C6" s="4"/>
       <c r="D6" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.75">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="339.25" x14ac:dyDescent="0.75">
       <c r="A7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="3">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C7" s="4"/>
+      <c r="D7" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.75">
       <c r="C8" s="4"/>
@@ -759,14 +797,7 @@
       <c r="C9" s="4"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ReportData/ReportData_Neeraj.xlsx
+++ b/ReportData/ReportData_Neeraj.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neeraj Kumar\PycharmProjects\Reporting\ReportData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F1A38F7-A572-4CC7-A9F8-6611FEB1CADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D4746EE-1B4E-4606-B953-2276E7E04691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4275" yWindow="500" windowWidth="14400" windowHeight="9300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalData" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
   <si>
     <t>Project_Name</t>
   </si>
@@ -35,9 +35,6 @@
     <t>Report_Title</t>
   </si>
   <si>
-    <t>BarGraph_show</t>
-  </si>
-  <si>
     <t>BarGraph_color</t>
   </si>
   <si>
@@ -119,104 +116,37 @@
     <t>BugCount_show</t>
   </si>
   <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>Concerned</t>
+  </si>
+  <si>
+    <t>BCM - Quick User Stories Report</t>
+  </si>
+  <si>
+    <t>Quick User Stories Status</t>
+  </si>
+  <si>
+    <t>PieChart</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
-    <t>[US18697]  https://rally1.rallydev.com/#/?detail=/userstory/645544635895&amp;fdp=true
-Status: Pending
-Acceptance Criteria:
-Market Segment, Effective Date, and End Date filters missing  [Pending]
-[US18699]  https://rally1.rallydev.com/#/?detail=/userstory/645546382079&amp;fdp=true
-Status: Done
-[US19023]  https://rally1.rallydev.com/#/?detail=/userstory/685893117545&amp;fdp=true
-Status: Need to discuss
-[US18971](https://rally1.rallydev.com/#/?detail=/userstory/684183351915&amp;fdp=true)
-Status: US not ready with full details</t>
-  </si>
-  <si>
-    <t>[US19176]  https://rally1.rallydev.com/#/?detail=/userstory/694249036483&amp;fdp=true
-Status: Pending
-Open Query: Change the check icon to be text + icon (what does a checkmark mean here?)
-[US18702]  https://rally1.rallydev.com/#/?detail=/userstory/645553234721&amp;fdp=true
-Status: Pending</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>Others</t>
-  </si>
-  <si>
-    <t>[US18675] https://rally1.rallydev.com/#/?detail=/userstory/645216278847&amp;fdp=true 
-Status: Pending
-[US18696] https://rally1.rallydev.com/#/?detail=/userstory/645544620711&amp;fdp=true
-Status: Pending
-Acceptance Criteria:
-Can we add quick action buttons (i.e. edit/copy) next to each plan?   [Pending]
-[US19173] https://rally1.rallydev.com/#/?detail=/userstory/694246646497&amp;fdp=true
-Status: Done
-[US19174]  https://rally1.rallydev.com/#/?detail=/userstory/694247645289&amp;fdp=true
-Status: Done
-[US19175]  https://rally1.rallydev.com/#/?detail=/userstory/694247645289&amp;fdp=true
-Status: Done
-[US15881]  https://rally1.rallydev.com/#/?detail=/userstory/292376301980&amp;fdp=true
-Status: Pending (Compare plan is not functional yet or not working)
-[US18970] https://rally1.rallydev.com/#/?detail=/userstory/684183351649&amp;fdp=true
-Status: US not ready with full details
-[US19213]  https://rally1.rallydev.com/#/?detail=/userstory/695910723141&amp;fdp=true
-Status: Done
-[US15722]  https://rally1.rallydev.com/#/?detail=/userstory/283760945972&amp;fdp=true
-Status: Done</t>
-  </si>
-  <si>
-    <t>[US19168] https://rally1.rallydev.com/#/?detail=/userstory/694240575353&amp;fdp=true
-Status: Pending
-[US19177] https://rally1.rallydev.com/#/?detail=/userstory/694251461587&amp;fdp=true
-Status: Done
-[US19170]  https://rally1.rallydev.com/#/?detail=/userstory/694245363417&amp;fdp=true
-Status: Done
-[US19171]  https://rally1.rallydev.com/#/?detail=/userstory/694246213923&amp;fdp=true
-Status: Done
-[US19169] https://rally1.rallydev.com/#/?detail=/userstory/694245359309&amp;fdp=true
-Status: Done
-[US18701]  https://rally1.rallydev.com/#/?detail=/userstory/645552232791&amp;fdp=true
-Status: Pending</t>
-  </si>
-  <si>
-    <t>[US18969]  https://rally1.rallydev.com/#/?detail=/userstory/684183351077&amp;fdp=true
-Status: US not ready with full details
-[US18973]  https://rally1.rallydev.com/#/?detail=/userstory/684185743987&amp;fdp=true
-Status: US not ready with full details
-[US18972]  https://rally1.rallydev.com/#/?detail=/userstory/684185741787&amp;fdp=true
-Status: US not ready with full details
-[US18974]  https://rally1.rallydev.com/#/?detail=/userstory/684222341641&amp;fdp=true
-Status: US not ready with full details
-[US18704]  https://rally1.rallydev.com/#/?detail=/userstory/645554779261&amp;fdp=true
-Status: Pending
-[US18899]  https://rally1.rallydev.com/#/?detail=/userstory/675329191893&amp;fdp=true
-Status: Pending
-[US18705]  https://rally1.rallydev.com/#/?detail=/userstory/645554780251&amp;fdp=true
-Status: Pending
-[US19172]  https://rally1.rallydev.com/#/?detail=/userstory/694246638681&amp;fdp=true
-Status: Pending</t>
-  </si>
-  <si>
-    <t>Concerned</t>
-  </si>
-  <si>
-    <t>BCM - Quick User Stories Report</t>
-  </si>
-  <si>
-    <t>Quick User Stories Status</t>
+    <t>Graph_Type</t>
   </si>
   <si>
     <t>Yes</t>
   </si>
   <si>
-    <t>BarGraph_Type</t>
-  </si>
-  <si>
-    <t>BarGraph</t>
+    <t>Graph_show</t>
+  </si>
+  <si>
+    <t>Status: Pending</t>
   </si>
 </sst>
 </file>
@@ -573,8 +503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -590,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -601,10 +531,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D2" s="1"/>
     </row>
@@ -613,95 +543,95 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -727,8 +657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="68" workbookViewId="0">
-      <selection activeCell="B6" sqref="B3:B6"/>
+    <sheetView zoomScale="68" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -744,70 +674,88 @@
   <sheetData>
     <row r="1" spans="1:4" ht="29.5" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="46.4" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="46.35" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A2" s="3" t="s">
-        <v>17</v>
+      <c r="B2" s="3">
+        <v>1</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="46.35" customHeight="1" x14ac:dyDescent="0.75">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="46.4" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="B3" s="3">
+        <v>2</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="46.35" customHeight="1" x14ac:dyDescent="0.75">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="46.4" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A4" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="B4" s="3">
+        <v>5</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="46.35" customHeight="1" x14ac:dyDescent="0.75">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="46.4" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A5" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="B5" s="3">
+        <v>10</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="46.35" customHeight="1" x14ac:dyDescent="0.75">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="46.4" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A6" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="B6" s="3">
+        <v>6</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="46.35" customHeight="1" x14ac:dyDescent="0.75">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="46.4" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A7" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
+      </c>
+      <c r="B7" s="3">
+        <v>6</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.75">

--- a/ReportData/ReportData_Neeraj.xlsx
+++ b/ReportData/ReportData_Neeraj.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neeraj Kumar\PycharmProjects\Reporting\ReportData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D4746EE-1B4E-4606-B953-2276E7E04691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF72888-C774-4328-BA31-F74B26A81272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4275" yWindow="500" windowWidth="14400" windowHeight="9300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalData" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
   <si>
     <t>Project_Name</t>
   </si>
@@ -132,9 +132,6 @@
   </si>
   <si>
     <t>PieChart</t>
-  </si>
-  <si>
-    <t>No</t>
   </si>
   <si>
     <t>Graph_Type</t>
@@ -503,7 +500,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -548,15 +545,15 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
         <v>36</v>
@@ -575,7 +572,7 @@
         <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.75">
@@ -695,7 +692,7 @@
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="46.4" customHeight="1" x14ac:dyDescent="0.75">
@@ -707,7 +704,7 @@
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="46.4" customHeight="1" x14ac:dyDescent="0.75">
@@ -719,7 +716,7 @@
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="46.4" customHeight="1" x14ac:dyDescent="0.75">
@@ -731,7 +728,7 @@
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="46.4" customHeight="1" x14ac:dyDescent="0.75">
@@ -755,7 +752,7 @@
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.75">
